--- a/doc/таблица закупок.xlsx
+++ b/doc/таблица закупок.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11988"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11988" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
     <sheet name="Лист4" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId5"/>
+    <sheet name="Лист6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="147">
   <si>
     <t>Наименование</t>
   </si>
@@ -106,12 +104,6 @@
   </si>
   <si>
     <t>GPS-антенна МА бол. Беж.</t>
-  </si>
-  <si>
-    <t>GPS-антенна МА желт.</t>
-  </si>
-  <si>
-    <t>GPS-антенна МА мал. Беж</t>
   </si>
   <si>
     <t>Антенна приёмопередатчика</t>
@@ -432,6 +424,69 @@
   <si>
     <t>https://market.yandex.ru/product--antenna-gps-g165/1411593916?sku=101413394477&amp;vid=7ac11ac62052f96890c52c83d7c451b3&amp;clid=2357258&amp;utm_source=admitad&amp;utm_medium=cpa&amp;utm_campaign=1686137&amp;pp=900&amp;mclid=1003&amp;distr_type=7&amp;utm_term=https%3A%2F%2Fzanex.ru%2F</t>
   </si>
+  <si>
+    <t>Провода</t>
+  </si>
+  <si>
+    <t>Элементы конструкции</t>
+  </si>
+  <si>
+    <t>"Удобрения"</t>
+  </si>
+  <si>
+    <t>удобрения</t>
+  </si>
+  <si>
+    <t>нитроаммофоска</t>
+  </si>
+  <si>
+    <t>https://www.kp.ru/family/sad-i-ogorod/nitroammofoska/</t>
+  </si>
+  <si>
+    <t>азот, фосфор, калий</t>
+  </si>
+  <si>
+    <t>Риверм</t>
+  </si>
+  <si>
+    <t>https://agroserver.ru/b/riverm-organicheskoe-udobrenie-224536.htm</t>
+  </si>
+  <si>
+    <t>от засухи</t>
+  </si>
+  <si>
+    <t>Леда Сульфат Аммония https://abekker.ru/articles/azot-dlya-rasteniy-top-6-luchshih-podkormok</t>
+  </si>
+  <si>
+    <t>монокальцийфосфат</t>
+  </si>
+  <si>
+    <t>https://www.kp.ru/family/sad-i-ogorod/fosfornye-udobreniya/</t>
+  </si>
+  <si>
+    <t>Датчик температуры, влажности и давления</t>
+  </si>
+  <si>
+    <t>Преобразователь ADC/DAC настраиваемый 12-битный аналогово-цифровой 8-канальный модуль платы преобразователя</t>
+  </si>
+  <si>
+    <t>Пьезодинамик МА</t>
+  </si>
+  <si>
+    <t>Аккумулятор</t>
+  </si>
+  <si>
+    <t>Модуль датчика углеродного газа азота, качество воздуха CO NO2 NH3</t>
+  </si>
+  <si>
+    <t>Антенна для радиомодуля</t>
+  </si>
+  <si>
+    <t>Транзистор</t>
+  </si>
+  <si>
+    <t>Конструктор</t>
+  </si>
 </sst>
 </file>
 
@@ -440,7 +495,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,6 +639,11 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Rubik-Regular"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -662,7 +722,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -761,6 +821,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -783,9 +851,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1056,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1087,7 +1152,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>4</v>
@@ -1099,7 +1164,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
@@ -1119,14 +1184,14 @@
         <v>508.93</v>
       </c>
       <c r="F2" s="2">
-        <f>D2*C2+E2</f>
+        <f t="shared" ref="F2:F16" si="0">D2*C2+E2</f>
         <v>2534.9299999999998</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
@@ -1146,14 +1211,14 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <f>D3*C3+E3</f>
+        <f t="shared" si="0"/>
         <v>892</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -1173,25 +1238,25 @@
         <v>258.52999999999997</v>
       </c>
       <c r="F4" s="2">
-        <f>D4*C4+E4</f>
+        <f t="shared" si="0"/>
         <v>1554.53</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -1203,14 +1268,14 @@
         <v>310</v>
       </c>
       <c r="F5" s="2">
-        <f>D5*C5+E5</f>
+        <f t="shared" si="0"/>
         <v>1108</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -1230,14 +1295,14 @@
         <v>199</v>
       </c>
       <c r="F6" s="2">
-        <f>D6*C6+E6</f>
+        <f t="shared" si="0"/>
         <v>455</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -1257,25 +1322,25 @@
         <v>345</v>
       </c>
       <c r="F7" s="2">
-        <f>D7*C7+E7</f>
+        <f t="shared" si="0"/>
         <v>3909</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -1287,19 +1352,19 @@
         <v>350</v>
       </c>
       <c r="F8" s="2">
-        <f>D8*C8+E8</f>
+        <f t="shared" si="0"/>
         <v>710</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
@@ -1311,19 +1376,19 @@
         <v>600</v>
       </c>
       <c r="F9" s="2">
-        <f>D9*C9+E9</f>
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -1335,22 +1400,22 @@
         <v>150</v>
       </c>
       <c r="F10" s="2">
-        <f>D10*C10+E10</f>
+        <f t="shared" si="0"/>
         <v>538</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -1362,14 +1427,14 @@
         <v>340</v>
       </c>
       <c r="F11" s="2">
-        <f>D11*C11+E11</f>
+        <f t="shared" si="0"/>
         <v>880</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -1377,7 +1442,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -1389,22 +1454,22 @@
         <v>342</v>
       </c>
       <c r="F12" s="2">
-        <f>D12*C12+E12</f>
+        <f t="shared" si="0"/>
         <v>3984</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -1413,16 +1478,16 @@
         <v>15000</v>
       </c>
       <c r="F13" s="2">
-        <f>D13*C13+E13</f>
+        <f t="shared" si="0"/>
         <v>30000</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>
@@ -1434,22 +1499,22 @@
         <v>450</v>
       </c>
       <c r="F14" s="2">
-        <f>D14*C14+E14</f>
+        <f t="shared" si="0"/>
         <v>2550</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
@@ -1457,20 +1522,26 @@
       <c r="D15" s="2">
         <v>600</v>
       </c>
+      <c r="E15" s="2">
+        <v>300</v>
+      </c>
       <c r="F15" s="2">
-        <f>D15*C15+E15</f>
-        <v>1200</v>
+        <f t="shared" si="0"/>
+        <v>1500</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>
@@ -1478,41 +1549,48 @@
       <c r="D16" s="2">
         <v>93</v>
       </c>
+      <c r="E16" s="2">
+        <v>350</v>
+      </c>
       <c r="F16" s="2">
-        <f>D16*C16+E16</f>
-        <v>186</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>122</v>
+        <f t="shared" si="0"/>
+        <v>536</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G8" r:id="rId1"/>
     <hyperlink ref="G5" r:id="rId2"/>
-    <hyperlink ref="G12"/>
+    <hyperlink ref="G12" display="https://ru.aliexpress.com/item/32950780030.html?src=google&amp;src=google&amp;albch=shopping&amp;acnt=494-037-6276&amp;isdl=y&amp;slnk=&amp;plac=&amp;mtctp=&amp;albbt=Google_7_shopping&amp;aff_platform=google&amp;aff_short_key=UneMJZVf&amp;&amp;albagn=888888&amp;albcp=1626924677&amp;albag=67602394011&amp;trgt=8309"/>
     <hyperlink ref="G14" r:id="rId3"/>
     <hyperlink ref="G11" r:id="rId4"/>
-    <hyperlink ref="G2"/>
+    <hyperlink ref="G2" display="https://aliexpress.ru/item/1005003722291328.html?spm=a2g2w.detail.rcmdprod.2.7bd86c26remBms&amp;mixer_rcmd_bucket_id=aerabtestalgoRecommendKazanV3_controlRu1.aerabtestalgoRecommendAbV10_controlRu2&amp;ru_algo_pv_id=c5f332-ea9d81-d8cd5f-e9b011&amp;scenario=aerSimilarI"/>
     <hyperlink ref="G3" r:id="rId5"/>
     <hyperlink ref="G4" r:id="rId6"/>
     <hyperlink ref="G9" r:id="rId7"/>
     <hyperlink ref="G10" r:id="rId8"/>
-    <hyperlink ref="G15" r:id="rId9"/>
-    <hyperlink ref="G6" r:id="rId10"/>
-    <hyperlink ref="G7" r:id="rId11"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="G7" r:id="rId10"/>
+    <hyperlink ref="G15" r:id="rId11"/>
+    <hyperlink ref="G16" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId12"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1527,12 +1605,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.6" x14ac:dyDescent="0.8">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
@@ -1550,16 +1628,13 @@
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="8">
-        <f>SUM(B4:B18)</f>
-        <v>133.19</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8">
-        <f>SUM(D4:D18)</f>
-        <v>145.26000000000002</v>
+        <f>SUM(D4:D22)</f>
+        <v>349.36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1573,6 +1648,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
+        <f>B4*C4</f>
         <v>48</v>
       </c>
     </row>
@@ -1587,6 +1663,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
+        <f t="shared" ref="D5:D22" si="0">B5*C5</f>
         <v>10.199999999999999</v>
       </c>
     </row>
@@ -1601,6 +1678,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
+        <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
     </row>
@@ -1615,6 +1693,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
+        <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
     </row>
@@ -1629,6 +1708,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
+        <f t="shared" si="0"/>
         <v>11.8</v>
       </c>
     </row>
@@ -1637,153 +1717,191 @@
         <v>28</v>
       </c>
       <c r="B9" s="7">
-        <v>11.9</v>
+        <v>1</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>11.9</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
-        <v>29</v>
+      <c r="A10" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="B10" s="7">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>3.2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C11" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="7">
-        <v>3.2</v>
-      </c>
-      <c r="C12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="24">
+        <v>15</v>
+      </c>
+      <c r="C12" s="25">
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>3.2</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B13" s="7">
-        <v>0.1</v>
+        <v>13.4</v>
       </c>
       <c r="C13" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
-        <v>54</v>
+        <f t="shared" si="0"/>
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="27" t="s">
+        <v>17</v>
       </c>
       <c r="B14" s="24">
-        <v>15</v>
+        <v>2.6</v>
       </c>
       <c r="C14" s="25">
         <v>1</v>
       </c>
-      <c r="D14" s="24">
-        <v>15</v>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B15" s="7">
-        <v>13.4</v>
+        <v>1.5</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>39</v>
       </c>
       <c r="B16" s="24">
-        <v>2.6</v>
+        <v>3.99</v>
       </c>
       <c r="C16" s="25">
-        <v>1</v>
-      </c>
-      <c r="D16" s="24">
-        <v>2.6</v>
+        <v>4</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>15.96</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>31</v>
+      <c r="A17" t="s">
+        <v>68</v>
       </c>
       <c r="B17" s="7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="24">
-        <v>3.99</v>
-      </c>
-      <c r="C18" s="25">
-        <v>4</v>
-      </c>
-      <c r="D18" s="24">
-        <v>15.96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="7">
-        <v>2</v>
-      </c>
-      <c r="C19" s="6">
+        <v>127</v>
+      </c>
+      <c r="B19">
+        <v>165</v>
+      </c>
+      <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1791,7 +1909,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1816,30 +1934,30 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="D1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" s="40">
         <f>SUM(C3:C16)</f>
@@ -1856,7 +1974,7 @@
     </row>
     <row r="3" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="35">
         <v>2.3400000000000001E-2</v>
@@ -1881,7 +1999,7 @@
     </row>
     <row r="4" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="35">
         <v>1E-3</v>
@@ -1906,7 +2024,7 @@
     </row>
     <row r="5" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" s="35">
         <v>6.4999999999999997E-4</v>
@@ -1931,7 +2049,7 @@
     </row>
     <row r="6" spans="1:7" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" s="35">
         <v>6.3299999999999999E-4</v>
@@ -1956,7 +2074,7 @@
     </row>
     <row r="7" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="35">
         <v>2.7E-4</v>
@@ -1981,7 +2099,7 @@
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="35">
         <v>0.12</v>
@@ -2006,7 +2124,7 @@
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" s="35">
         <v>0.04</v>
@@ -2031,7 +2149,7 @@
     </row>
     <row r="10" spans="1:7" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" s="35">
         <v>0.03</v>
@@ -2054,7 +2172,7 @@
         <v>0.29699999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -2081,7 +2199,7 @@
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B12" s="35">
         <v>0.05</v>
@@ -2106,7 +2224,7 @@
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13" s="35">
         <v>1.4999999999999999E-2</v>
@@ -2156,7 +2274,7 @@
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" s="38">
         <v>1.2999999999999999E-2</v>
@@ -2179,9 +2297,9 @@
         <v>0.12869999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" s="35">
         <v>6.2E-4</v>
@@ -2206,7 +2324,7 @@
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E17" s="22">
         <v>0.91</v>
@@ -2214,7 +2332,7 @@
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18">
         <f>G2/E17</f>
@@ -2223,7 +2341,7 @@
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E19">
         <v>3.7</v>
@@ -2231,7 +2349,7 @@
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E20">
         <f>E18/E19</f>
@@ -2240,7 +2358,7 @@
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E21">
         <v>0.6</v>
@@ -2248,7 +2366,7 @@
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E22">
         <f>C2</f>
@@ -2257,7 +2375,7 @@
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>0.6</v>
@@ -2273,7 +2391,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2286,39 +2404,39 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
         <v>80</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>82</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>83</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
         <v>85</v>
       </c>
-      <c r="G1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E2">
         <v>0.5</v>
@@ -2331,15 +2449,15 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="43"/>
+      <c r="A3" s="47"/>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E3">
         <v>0.12</v>
@@ -2352,18 +2470,18 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
+      <c r="A4" s="47"/>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -2373,17 +2491,17 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
-        <v>72</v>
+      <c r="A5" s="47" t="s">
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E5">
         <v>0.5</v>
@@ -2396,15 +2514,15 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
+      <c r="A6" s="47"/>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E6">
         <v>0.12</v>
@@ -2418,16 +2536,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E7">
         <v>0.5</v>
@@ -2440,17 +2558,17 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" t="s">
         <v>104</v>
       </c>
-      <c r="B8" t="s">
-        <v>106</v>
-      </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -2463,15 +2581,15 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
+      <c r="A9" s="47"/>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E9">
         <v>0.04</v>
@@ -2485,16 +2603,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E10">
         <v>4.0000000000000001E-3</v>
@@ -2507,41 +2625,41 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="47" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="47"/>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="47"/>
+      <c r="B13" t="s">
         <v>115</v>
       </c>
-      <c r="C11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
-      <c r="B12" t="s">
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="47"/>
+      <c r="B14" t="s">
         <v>116</v>
       </c>
-      <c r="C12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
-      <c r="B14" t="s">
-        <v>118</v>
-      </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E14">
         <v>2.5</v>
@@ -2569,4 +2687,319 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="44"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D1">
+        <f>SUM(D2:D16)</f>
+        <v>23631</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1013</v>
+      </c>
+      <c r="D2">
+        <f>B2*C2</f>
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>357</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D16" si="0">B3*C3</f>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>648</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>399</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>128</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1671</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>180</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>450</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>194</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>270</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1821</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1050</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>357</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>93</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>15000</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/таблица закупок.xlsx
+++ b/doc/таблица закупок.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11988" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11988"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,11 @@
     <sheet name="Лист6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="159">
   <si>
     <t>Наименование</t>
   </si>
@@ -61,18 +60,12 @@
     <t>NEO-6M</t>
   </si>
   <si>
-    <t>https://aliexpress.ru/item/1005005796620506.html?sku_id=12000034384104706&amp;spm=a2g2w.productlist.search_results.2.5a1a17b3Wjq9DK</t>
-  </si>
-  <si>
     <t>Фоторезистор</t>
   </si>
   <si>
     <t> VT93N1</t>
   </si>
   <si>
-    <t>https://aliexpress.ru/item/1005005623364865.html?sku_id=12000033783353534&amp;spm=a2g2w.productlist.search_results.0.3ee96359zA9eL9</t>
-  </si>
-  <si>
     <t>модуль датчика углеродного газа азота, качество воздуха CO NO2 NH3</t>
   </si>
   <si>
@@ -215,9 +208,6 @@
   </si>
   <si>
     <t>https://html.alldatasheet.com/html-pdf/1007817/AD/AD5593RBCPZ-RL7/203/5/AD5593RBCPZ-RL7.html</t>
-  </si>
-  <si>
-    <t>https://www.chipdip.ru/product/hpm14a</t>
   </si>
   <si>
     <t>HPM14A</t>
@@ -410,9 +400,6 @@
     <t>https://www.chipdip.ru/product/irf3205</t>
   </si>
   <si>
-    <t>транзистор для пищалки</t>
-  </si>
-  <si>
     <t>IRF3205PBF</t>
   </si>
   <si>
@@ -422,9 +409,6 @@
     <t>Доставка, руб</t>
   </si>
   <si>
-    <t>https://market.yandex.ru/product--antenna-gps-g165/1411593916?sku=101413394477&amp;vid=7ac11ac62052f96890c52c83d7c451b3&amp;clid=2357258&amp;utm_source=admitad&amp;utm_medium=cpa&amp;utm_campaign=1686137&amp;pp=900&amp;mclid=1003&amp;distr_type=7&amp;utm_term=https%3A%2F%2Fzanex.ru%2F</t>
-  </si>
-  <si>
     <t>Провода</t>
   </si>
   <si>
@@ -486,6 +470,57 @@
   </si>
   <si>
     <t>Конструктор</t>
+  </si>
+  <si>
+    <t>Итог:</t>
+  </si>
+  <si>
+    <t>транзистор для пищалки и пережигателя</t>
+  </si>
+  <si>
+    <t>добавить дополнительные</t>
+  </si>
+  <si>
+    <t>https://roboshop.spb.ru/modules/moduli-besprovodnoj-svyazi/gsm-gprs/gps-active-ceramic-antenna-1575mhz-20-6-6mm-for-gps-mini-ipex-interface</t>
+  </si>
+  <si>
+    <t>Альтернативная ссылка</t>
+  </si>
+  <si>
+    <t>AD1115</t>
+  </si>
+  <si>
+    <t>найти 12м</t>
+  </si>
+  <si>
+    <t>https://aliexpress.ru/item/1005003742405747.html?sku_id=12000027007287333&amp;spm=a2g2w.productlist.search_results.13.6cdd4aa69ecG0E</t>
+  </si>
+  <si>
+    <t>https://aliexpress.ru/item/1005002847324384.html?sku_id=12000022448592605&amp;spm=a2g2w.productlist.search_results.8.1b644aa6qfpyPI</t>
+  </si>
+  <si>
+    <t>https://aliexpress.ru/item/32968809059.html?sku_id=66626582821&amp;spm=a2g2w.productlist.search_results.15.1b644aa6ZcU7pX</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product0/8009542628</t>
+  </si>
+  <si>
+    <t>https://evolvector.ru/pek11-056</t>
+  </si>
+  <si>
+    <t>https://tixer.ru/catalog/sensors/fotorezistory/fotorezistor_vt93n1/</t>
+  </si>
+  <si>
+    <t>https://aliexpress.ru/item/32761481134.html?sku_id=62134972931&amp;spm=a2g2w.productlist.search_results.5.6cb74aa65lbUUz</t>
+  </si>
+  <si>
+    <t>https://www.yourduino.ru/product/aktivnyy-zummer</t>
+  </si>
+  <si>
+    <t>https://aliexpress.ru/item/1005004411792124.html?sku_id=12000029089638600</t>
+  </si>
+  <si>
+    <t>https://aliexpress.ru/item/1005005056298684.html?sku_id=12000031474348853&amp;spm=a2g2w.productlist.search_results.0.28c13b05vqmnEF</t>
   </si>
 </sst>
 </file>
@@ -495,7 +530,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,6 +679,22 @@
       <color rgb="FF000000"/>
       <name val="Rubik-Regular"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -722,7 +773,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -833,6 +884,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -854,6 +911,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>852564</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2560320"/>
+          <a:ext cx="5973204" cy="586740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1111,7 +1211,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1119,26 +1219,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="37" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.109375" style="2"/>
-    <col min="5" max="5" width="16" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="50.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="31.88671875" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1253,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>4</v>
@@ -1161,13 +1262,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="J1" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1188,13 +1292,14 @@
         <v>2534.9299999999998</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1202,7 +1307,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2">
         <v>446</v>
@@ -1212,16 +1317,16 @@
       </c>
       <c r="F3" s="2">
         <f t="shared" si="0"/>
-        <v>892</v>
+        <v>1338</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1242,21 +1347,22 @@
         <v>1554.53</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" s="49"/>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -1272,18 +1378,21 @@
         <v>1108</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -1299,18 +1408,21 @@
         <v>455</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -1326,21 +1438,24 @@
         <v>3909</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -1356,15 +1471,18 @@
         <v>710</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" s="49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
@@ -1380,15 +1498,18 @@
         <v>1500</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -1404,18 +1525,19 @@
         <v>538</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -1431,18 +1553,19 @@
         <v>880</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -1458,18 +1581,19 @@
         <v>3984</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="I12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -1482,12 +1606,12 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>
@@ -1503,18 +1627,19 @@
         <v>2550</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="41" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
@@ -1530,21 +1655,22 @@
         <v>1500</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C16" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" s="2">
         <v>93</v>
@@ -1554,34 +1680,47 @@
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>536</v>
+        <v>722</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>97</v>
+        <v>117</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="33"/>
+    </row>
+    <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="B18" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="48">
+        <f>SUM(F2:F17)</f>
+        <v>53283.46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1"/>
-    <hyperlink ref="G5" r:id="rId2"/>
-    <hyperlink ref="G12" display="https://ru.aliexpress.com/item/32950780030.html?src=google&amp;src=google&amp;albch=shopping&amp;acnt=494-037-6276&amp;isdl=y&amp;slnk=&amp;plac=&amp;mtctp=&amp;albbt=Google_7_shopping&amp;aff_platform=google&amp;aff_short_key=UneMJZVf&amp;&amp;albagn=888888&amp;albcp=1626924677&amp;albag=67602394011&amp;trgt=8309"/>
-    <hyperlink ref="G14" r:id="rId3"/>
-    <hyperlink ref="G11" r:id="rId4"/>
-    <hyperlink ref="G2" display="https://aliexpress.ru/item/1005003722291328.html?spm=a2g2w.detail.rcmdprod.2.7bd86c26remBms&amp;mixer_rcmd_bucket_id=aerabtestalgoRecommendKazanV3_controlRu1.aerabtestalgoRecommendAbV10_controlRu2&amp;ru_algo_pv_id=c5f332-ea9d81-d8cd5f-e9b011&amp;scenario=aerSimilarI"/>
-    <hyperlink ref="G3" r:id="rId5"/>
-    <hyperlink ref="G4" r:id="rId6"/>
-    <hyperlink ref="G9" r:id="rId7"/>
-    <hyperlink ref="G10" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="G7" r:id="rId10"/>
-    <hyperlink ref="G15" r:id="rId11"/>
-    <hyperlink ref="G16" r:id="rId12"/>
+    <hyperlink ref="G5" r:id="rId1"/>
+    <hyperlink ref="G12"/>
+    <hyperlink ref="G14" r:id="rId2"/>
+    <hyperlink ref="G11" r:id="rId3"/>
+    <hyperlink ref="G2"/>
+    <hyperlink ref="G9" r:id="rId4"/>
+    <hyperlink ref="G10" r:id="rId5"/>
+    <hyperlink ref="G7" r:id="rId6"/>
+    <hyperlink ref="G15" r:id="rId7"/>
+    <hyperlink ref="G16" r:id="rId8"/>
+    <hyperlink ref="G3" r:id="rId9"/>
+    <hyperlink ref="H4" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId13"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -1606,7 +1745,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="33.6" x14ac:dyDescent="0.8">
       <c r="A1" s="46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="46"/>
@@ -1614,21 +1753,21 @@
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1639,7 +1778,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="7">
         <v>48</v>
@@ -1684,7 +1823,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="7">
         <v>1.3</v>
@@ -1699,7 +1838,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="7">
         <v>11.8</v>
@@ -1714,7 +1853,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
@@ -1729,7 +1868,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="7">
         <v>3.2</v>
@@ -1744,7 +1883,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="7">
         <v>0.1</v>
@@ -1759,7 +1898,7 @@
     </row>
     <row r="12" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="24">
         <v>15</v>
@@ -1774,7 +1913,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" s="7">
         <v>13.4</v>
@@ -1789,7 +1928,7 @@
     </row>
     <row r="14" spans="1:4" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="24">
         <v>2.6</v>
@@ -1804,7 +1943,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="7">
         <v>1.5</v>
@@ -1819,7 +1958,7 @@
     </row>
     <row r="16" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" s="24">
         <v>3.99</v>
@@ -1834,7 +1973,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B17" s="7">
         <v>2</v>
@@ -1849,7 +1988,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -1864,7 +2003,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B19">
         <v>165</v>
@@ -1879,7 +2018,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B20">
         <v>50</v>
@@ -1934,30 +2073,30 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="D1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="40">
         <f>SUM(C3:C16)</f>
@@ -1974,7 +2113,7 @@
     </row>
     <row r="3" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="35">
         <v>2.3400000000000001E-2</v>
@@ -1999,7 +2138,7 @@
     </row>
     <row r="4" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="35">
         <v>1E-3</v>
@@ -2024,7 +2163,7 @@
     </row>
     <row r="5" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="35">
         <v>6.4999999999999997E-4</v>
@@ -2049,7 +2188,7 @@
     </row>
     <row r="6" spans="1:7" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" s="35">
         <v>6.3299999999999999E-4</v>
@@ -2074,7 +2213,7 @@
     </row>
     <row r="7" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" s="35">
         <v>2.7E-4</v>
@@ -2099,7 +2238,7 @@
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="35">
         <v>0.12</v>
@@ -2124,7 +2263,7 @@
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" s="35">
         <v>0.04</v>
@@ -2149,7 +2288,7 @@
     </row>
     <row r="10" spans="1:7" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="35">
         <v>0.03</v>
@@ -2174,7 +2313,7 @@
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="35">
         <v>7.5000000000000002E-4</v>
@@ -2199,7 +2338,7 @@
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B12" s="35">
         <v>0.05</v>
@@ -2224,7 +2363,7 @@
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" s="35">
         <v>1.4999999999999999E-2</v>
@@ -2249,7 +2388,7 @@
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="37">
         <v>5.9999999999999995E-4</v>
@@ -2274,7 +2413,7 @@
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B15" s="38">
         <v>1.2999999999999999E-2</v>
@@ -2299,7 +2438,7 @@
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B16" s="35">
         <v>6.2E-4</v>
@@ -2324,7 +2463,7 @@
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E17" s="22">
         <v>0.91</v>
@@ -2332,7 +2471,7 @@
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <f>G2/E17</f>
@@ -2341,7 +2480,7 @@
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>3.7</v>
@@ -2349,7 +2488,7 @@
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <f>E18/E19</f>
@@ -2358,7 +2497,7 @@
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E21">
         <v>0.6</v>
@@ -2366,7 +2505,7 @@
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E22">
         <f>C2</f>
@@ -2375,7 +2514,7 @@
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E23">
         <v>0.6</v>
@@ -2391,52 +2530,53 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
         <v>78</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>81</v>
-      </c>
-      <c r="E1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
         <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>88</v>
       </c>
       <c r="E2">
         <v>0.5</v>
@@ -2451,13 +2591,13 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="47"/>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E3">
         <v>0.12</v>
@@ -2472,16 +2612,16 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="47"/>
       <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
         <v>87</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" s="34" t="s">
         <v>91</v>
-      </c>
-      <c r="D4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>94</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -2492,16 +2632,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
         <v>85</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" t="s">
-        <v>88</v>
       </c>
       <c r="E5">
         <v>0.5</v>
@@ -2516,13 +2656,13 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="47"/>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E6">
         <v>0.12</v>
@@ -2536,16 +2676,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E7">
         <v>0.5</v>
@@ -2559,16 +2699,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -2583,13 +2723,13 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="47"/>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E9">
         <v>0.04</v>
@@ -2603,16 +2743,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
         <v>107</v>
       </c>
-      <c r="B10" t="s">
-        <v>110</v>
-      </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E10">
         <v>4.0000000000000001E-3</v>
@@ -2629,37 +2769,37 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="47"/>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="47"/>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E14">
         <v>2.5</v>
@@ -2686,6 +2826,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2693,8 +2834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2705,18 +2846,18 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2724,26 +2865,26 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2821,7 +2962,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2836,7 +2977,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2851,7 +2992,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2866,7 +3007,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2881,7 +3022,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2896,7 +3037,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2911,7 +3052,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2926,7 +3067,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2941,7 +3082,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2956,7 +3097,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2971,7 +3112,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2986,7 +3127,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B16">
         <v>1</v>

--- a/doc/таблица закупок.xlsx
+++ b/doc/таблица закупок.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\cansat-UKLON-M-2023-2024\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11988"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,12 +19,12 @@
     <sheet name="Лист5" sheetId="5" r:id="rId5"/>
     <sheet name="Лист6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="184">
   <si>
     <t>Наименование</t>
   </si>
@@ -87,15 +92,9 @@
     <t xml:space="preserve">Стандартный конструктор </t>
   </si>
   <si>
-    <t>преобразователь ADC/DAC настраиваемый 12-битный аналогово-цифровой 8-канальный модуль платы преобразователя</t>
-  </si>
-  <si>
     <t>AD5593</t>
   </si>
   <si>
-    <t>https://aliexpress.ru/item/32971143019.html?sku_id=66625037532&amp;spm=a2g2w.productlist.search_results.7.7d6324c0bs9kYL</t>
-  </si>
-  <si>
     <t>GPS-антенна МА бол. Беж.</t>
   </si>
   <si>
@@ -210,18 +209,12 @@
     <t>https://html.alldatasheet.com/html-pdf/1007817/AD/AD5593RBCPZ-RL7/203/5/AD5593RBCPZ-RL7.html</t>
   </si>
   <si>
-    <t>HPM14A</t>
-  </si>
-  <si>
     <t>датчик температуры, влажности и давления</t>
   </si>
   <si>
     <t>BME280</t>
   </si>
   <si>
-    <t>https://www.vseinstrumenti.ru/product/rezbovaya-shpilka-krep-komp-nerzhaveyuschaya-din976-a2-m3h1000-1-sht-shrn3m-1837884/</t>
-  </si>
-  <si>
     <t>BMP280</t>
   </si>
   <si>
@@ -295,12 +288,6 @@
   </si>
   <si>
     <t xml:space="preserve">±3 </t>
-  </si>
-  <si>
-    <t>LP414661</t>
-  </si>
-  <si>
-    <t>https://batterymag.ru/akkumulyator-li-po-robiton-414661-1300-mach</t>
   </si>
   <si>
     <t>проверено</t>
@@ -522,6 +509,99 @@
   <si>
     <t>https://aliexpress.ru/item/1005005056298684.html?sku_id=12000031474348853&amp;spm=a2g2w.productlist.search_results.0.28c13b05vqmnEF</t>
   </si>
+  <si>
+    <t xml:space="preserve">Модуль АЦП </t>
+  </si>
+  <si>
+    <t>ADS1115</t>
+  </si>
+  <si>
+    <t>https://aliexpress.ru/item/1005001433541689.html?sku_id=12000016096351868&amp;spm=a2g2w.productlist.search_results.1.400c4aa6ofPFFj</t>
+  </si>
+  <si>
+    <t>https://aliexpress.ru/item/1005004806120642.html?sku_id=12000035639716532&amp;spm=a2g2w.productlist.search_results.0.3a374aa6DbWEiE</t>
+  </si>
+  <si>
+    <t>https://krep-komp.ru/krepezh/shpilki/rezbovye/nerzhaveyushchie-din-976/shpilka_rezbovaya_nerzhaveyushchaya_din976_a2_m3_kh_1000_1_sht.html</t>
+  </si>
+  <si>
+    <t>м3</t>
+  </si>
+  <si>
+    <t>https://snabline.com/shpilka-rezbovaya-din-975-metrovaya-s-metricheskoy-rezboy-otsinkovannaya-m3x1000-mm-artikul-36794</t>
+  </si>
+  <si>
+    <t>ГАЙКА ШЕСТИГРАННАЯ DIN 934 НЕРЖАВЕЮЩАЯ СТАЛЬ A2, M3</t>
+  </si>
+  <si>
+    <t>DIN 934 м3</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/0217003000p300005010</t>
+  </si>
+  <si>
+    <t>https://krepcom.ru/catalog/gayki-razdel/gayka-privarnaya-m3-din-929-nerzhaveyushchaya-stal-a4.htm</t>
+  </si>
+  <si>
+    <t>https://www.vessic.com/ru/productdetail%2Firf3205pbf-Za19Upg3K4pn2nhYq.html?utm_source=yandex&amp;utm_medium=cpc&amp;utm_campaign=Inq-q-1025&amp;utm_term=IRF3205PBF&amp;yclid=1738707121012735999</t>
+  </si>
+  <si>
+    <t>https://mcustore.ru/store/datchiki-i-sensory/giroskop-i-akselerometr-3-x-osevoj-mpu-6050-gy-521/?yclid=14333419965258924031</t>
+  </si>
+  <si>
+    <t>https://aliexpress.ru/item/1005001420000641.html?gatewayAdapt=glo2rus&amp;sku_id=12000016030590054</t>
+  </si>
+  <si>
+    <t>Ещё одна альтернативная ссылочка</t>
+  </si>
+  <si>
+    <t>https://aliexpress.ru/item/1005005714606094.html?sku_id=12000034095347236&amp;spm=a2g2w.productlist.search_results.6.3a374aa6q9rtd4</t>
+  </si>
+  <si>
+    <t>https://antenna-profi.ru/p/antenna-gps-g165</t>
+  </si>
+  <si>
+    <t>https://3d-diy.ru/product/gps-modul-gy-neo6mv2</t>
+  </si>
+  <si>
+    <t>https://aliexpress.ru/item/1005005616221865.html?sku_id=12000033760348052&amp;spm=a2g2w.productlist.search_results.0.59094aa65i53Zx</t>
+  </si>
+  <si>
+    <t>https://kimkit.ru/catalog/radiokonstruktory-i-moduli/avtomatika/datchik/108660/</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product0/8015479820</t>
+  </si>
+  <si>
+    <t>HPM12A</t>
+  </si>
+  <si>
+    <t>https://aliexpress.ru/item/1005006190517251.html?sku_id=12000036200030244&amp;spm=a2g2w.productlist.search_results.11.11114aa6TQVFvd</t>
+  </si>
+  <si>
+    <t>https://www.nix.ru/autocatalog/sd_cards_transcend/Transcend-TS16GUSD300S-microSDHC-16Gb-UHS-I-U1_405974.html</t>
+  </si>
+  <si>
+    <t>https://onekrep.ru/magazin/product/shpilka-din-975-m3x1000-36794-ok</t>
+  </si>
+  <si>
+    <t>https://lazon.ru/p/32959036821</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product0/8009337985</t>
+  </si>
+  <si>
+    <t>https://compacttool.ru/giroskop-akselerometr-mpu-6050-so-vstroennym-mikrokontrollerom</t>
+  </si>
+  <si>
+    <t>https://roboparts.ru/catalog/elektronnye_komponenty_i_mikrokontrollery/tranzistory/polevye_mosfet/irf3205pbf-mosfet-tranzistor-to-220/</t>
+  </si>
+  <si>
+    <t>LP443442</t>
+  </si>
+  <si>
+    <t>https://batterymag.ru/akkumulyator-li-po-robiton-443442-600-mach</t>
+  </si>
 </sst>
 </file>
 
@@ -530,7 +610,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -773,7 +853,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -880,17 +960,20 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -908,6 +991,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1211,7 +1297,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1219,27 +1305,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="2"/>
-    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="39.5546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="33.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="31.88671875" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="13.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="34.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="27" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1253,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>4</v>
@@ -1262,16 +1349,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I1" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="K1" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="106.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1292,14 +1382,19 @@
         <v>2534.9299999999998</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="60">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1307,7 +1402,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
         <v>446</v>
@@ -1317,16 +1412,19 @@
       </c>
       <c r="F3" s="2">
         <f t="shared" si="0"/>
-        <v>1338</v>
+        <v>892</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="60">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1347,22 +1445,25 @@
         <v>1554.53</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I4" s="49"/>
-      <c r="J4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J4" s="47"/>
+      <c r="K4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30">
+      <c r="A5" s="29" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>64</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -1378,16 +1479,19 @@
         <v>1108</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="I5" s="49" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1408,54 +1512,60 @@
         <v>455</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="60">
+      <c r="A7" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="2">
-        <v>1782</v>
+        <v>168</v>
       </c>
       <c r="E7" s="2">
-        <v>345</v>
+        <v>71.5</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>3909</v>
+        <v>407.5</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="I7" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="J7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>174</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -1471,18 +1581,21 @@
         <v>710</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="I8" s="49" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="60">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
@@ -1498,74 +1611,86 @@
         <v>1500</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="75">
+      <c r="A10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
       </c>
       <c r="D10" s="2">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="E10" s="2">
-        <v>150</v>
+        <v>650</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>538</v>
+        <v>958</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30">
       <c r="A11" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="C11" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="E11" s="2">
         <v>340</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>1572</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="3"/>
+      <c r="J11" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="48" customHeight="1">
       <c r="A12" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -1581,146 +1706,195 @@
         <v>3984</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="60">
+      <c r="A13" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="J12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>71</v>
+      <c r="B13" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
       </c>
       <c r="D13" s="2">
-        <v>15000</v>
+        <v>1050</v>
+      </c>
+      <c r="E13" s="2">
+        <v>450</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
-        <v>73</v>
+        <v>2550</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="45">
+      <c r="A14" s="41" t="s">
+        <v>110</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>
       </c>
       <c r="D14" s="2">
-        <v>1050</v>
+        <v>600</v>
       </c>
       <c r="E14" s="2">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>2550</v>
+        <v>1500</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
-        <v>116</v>
+        <v>108</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="67.5" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2">
+        <v>93</v>
+      </c>
+      <c r="E15" s="2">
+        <v>350</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>722</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="60">
+      <c r="A16" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>59</v>
+      </c>
+      <c r="E16" s="2">
+        <v>600</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>659</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="33"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="2">
         <v>2</v>
       </c>
-      <c r="D15" s="2">
-        <v>600</v>
-      </c>
-      <c r="E15" s="2">
-        <v>300</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="2">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2">
-        <v>93</v>
-      </c>
-      <c r="E16" s="2">
-        <v>350</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>722</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="33"/>
-    </row>
-    <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B18" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18" s="48">
+      <c r="D17" s="2">
+        <v>15000</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" ref="F17" si="1">D17*C17+E17</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.75">
+      <c r="B18" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="46">
         <f>SUM(F2:F17)</f>
-        <v>53283.46</v>
+        <v>51106.96</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1"/>
     <hyperlink ref="G12"/>
-    <hyperlink ref="G14" r:id="rId2"/>
-    <hyperlink ref="G11" r:id="rId3"/>
+    <hyperlink ref="G13" r:id="rId2"/>
     <hyperlink ref="G2"/>
-    <hyperlink ref="G9" r:id="rId4"/>
-    <hyperlink ref="G10" r:id="rId5"/>
-    <hyperlink ref="G7" r:id="rId6"/>
-    <hyperlink ref="G15" r:id="rId7"/>
-    <hyperlink ref="G16" r:id="rId8"/>
-    <hyperlink ref="G3" r:id="rId9"/>
-    <hyperlink ref="H4" r:id="rId10"/>
+    <hyperlink ref="G9" r:id="rId3"/>
+    <hyperlink ref="G10" r:id="rId4"/>
+    <hyperlink ref="G14" r:id="rId5"/>
+    <hyperlink ref="G15" r:id="rId6"/>
+    <hyperlink ref="G3" r:id="rId7"/>
+    <hyperlink ref="H4" r:id="rId8"/>
+    <hyperlink ref="H7" r:id="rId9"/>
+    <hyperlink ref="G7" r:id="rId10"/>
+    <hyperlink ref="H15" r:id="rId11"/>
+    <hyperlink ref="I2" r:id="rId12"/>
+    <hyperlink ref="H8" r:id="rId13"/>
+    <hyperlink ref="G8" r:id="rId14"/>
+    <hyperlink ref="G4" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId11"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -1732,26 +1906,26 @@
       <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.6" x14ac:dyDescent="0.8">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:4" ht="33.75">
+      <c r="A1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-    </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+    </row>
+    <row r="2" spans="1:4" ht="18.75">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
@@ -1765,9 +1939,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="18.75">
       <c r="A3" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1776,7 +1950,7 @@
         <v>349.36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="20" t="s">
         <v>21</v>
       </c>
@@ -1791,7 +1965,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
@@ -1806,7 +1980,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="20" t="s">
         <v>11</v>
       </c>
@@ -1821,7 +1995,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="20" t="s">
         <v>13</v>
       </c>
@@ -1836,9 +2010,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="7">
         <v>11.8</v>
@@ -1851,9 +2025,9 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
@@ -1866,9 +2040,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" s="7">
         <v>3.2</v>
@@ -1881,9 +2055,9 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="7">
         <v>0.1</v>
@@ -1896,9 +2070,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="26" customFormat="1">
       <c r="A12" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" s="24">
         <v>15</v>
@@ -1911,9 +2085,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13" s="7">
         <v>13.4</v>
@@ -1926,7 +2100,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="26" customFormat="1" ht="45">
       <c r="A14" s="27" t="s">
         <v>15</v>
       </c>
@@ -1941,9 +2115,9 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="7">
         <v>1.5</v>
@@ -1956,9 +2130,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" s="26" customFormat="1">
       <c r="A16" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="24">
         <v>3.99</v>
@@ -1971,9 +2145,9 @@
         <v>15.96</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B17" s="7">
         <v>2</v>
@@ -1986,9 +2160,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -2001,9 +2175,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B19">
         <v>165</v>
@@ -2016,9 +2190,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B20">
         <v>50</v>
@@ -2031,13 +2205,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="D21" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="D22" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2056,47 +2230,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="26.25">
       <c r="A1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="D1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="40">
         <f>SUM(C3:C16)</f>
@@ -2111,9 +2285,9 @@
         <v>3.1846376999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="27" thickBot="1">
       <c r="A3" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="35">
         <v>2.3400000000000001E-2</v>
@@ -2136,9 +2310,9 @@
         <v>0.23165999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="27" thickBot="1">
       <c r="A4" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="35">
         <v>1E-3</v>
@@ -2161,9 +2335,9 @@
         <v>9.8999999999999991E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="27" thickBot="1">
       <c r="A5" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="35">
         <v>6.4999999999999997E-4</v>
@@ -2186,9 +2360,9 @@
         <v>6.4349999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="39.75" thickBot="1">
       <c r="A6" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" s="35">
         <v>6.3299999999999999E-4</v>
@@ -2211,9 +2385,9 @@
         <v>6.2667E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="27" thickBot="1">
       <c r="A7" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" s="35">
         <v>2.7E-4</v>
@@ -2236,9 +2410,9 @@
         <v>2.673E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1">
       <c r="A8" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="35">
         <v>0.12</v>
@@ -2261,9 +2435,9 @@
         <v>1.1879999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1">
       <c r="A9" s="28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="35">
         <v>0.04</v>
@@ -2286,9 +2460,9 @@
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="39.75" thickBot="1">
       <c r="A10" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" s="35">
         <v>0.03</v>
@@ -2311,9 +2485,9 @@
         <v>0.29699999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="35">
         <v>7.5000000000000002E-4</v>
@@ -2336,9 +2510,9 @@
         <v>7.4249999999999993E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1">
       <c r="A12" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="35">
         <v>0.05</v>
@@ -2361,9 +2535,9 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1">
       <c r="A13" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="35">
         <v>1.4999999999999999E-2</v>
@@ -2386,7 +2560,7 @@
         <v>0.14849999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1">
       <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
@@ -2411,9 +2585,9 @@
         <v>5.9399999999999991E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1">
       <c r="A15" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" s="38">
         <v>1.2999999999999999E-2</v>
@@ -2436,9 +2610,9 @@
         <v>0.12869999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B16" s="35">
         <v>6.2E-4</v>
@@ -2461,60 +2635,60 @@
         <v>6.1380000000000002E-3</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:5">
       <c r="D17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E17" s="22">
         <v>0.91</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:5">
       <c r="D18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E18">
         <f>G2/E17</f>
         <v>3.4996018681318675</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:5">
       <c r="D19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E19">
         <v>3.7</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:5">
       <c r="D20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E20">
         <f>E18/E19</f>
         <v>0.94583834273834255</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:5">
       <c r="D21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E21">
         <v>0.6</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:5">
       <c r="D22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <f>C2</f>
         <v>0.41755524999999999</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:5">
       <c r="D23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E23">
         <v>0.6</v>
@@ -2533,50 +2707,50 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
         <v>78</v>
       </c>
-      <c r="E1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" t="s">
-        <v>85</v>
       </c>
       <c r="E2">
         <v>0.5</v>
@@ -2588,16 +2762,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
+    <row r="3" spans="1:7">
+      <c r="A3" s="49"/>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E3">
         <v>0.12</v>
@@ -2609,19 +2783,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
+    <row r="4" spans="1:7">
+      <c r="A4" s="49"/>
       <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
         <v>84</v>
       </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
       <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="34" t="s">
         <v>87</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>91</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -2630,18 +2804,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
-        <v>67</v>
+    <row r="5" spans="1:7">
+      <c r="A5" s="49" t="s">
+        <v>63</v>
       </c>
       <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
         <v>82</v>
       </c>
-      <c r="C5" t="s">
-        <v>86</v>
-      </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E5">
         <v>0.5</v>
@@ -2653,16 +2827,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
+    <row r="6" spans="1:7">
+      <c r="A6" s="49"/>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E6">
         <v>0.12</v>
@@ -2674,18 +2848,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
         <v>82</v>
       </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E7">
         <v>0.5</v>
@@ -2697,18 +2871,18 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="47" t="s">
-        <v>99</v>
+    <row r="8" spans="1:7">
+      <c r="A8" s="49" t="s">
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -2720,16 +2894,16 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
+    <row r="9" spans="1:7">
+      <c r="A9" s="49"/>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E9">
         <v>0.04</v>
@@ -2741,18 +2915,18 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E10">
         <v>4.0000000000000001E-3</v>
@@ -2764,42 +2938,42 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="47" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="49" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="49"/>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="49"/>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="49"/>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E14">
         <v>2.5</v>
@@ -2811,7 +2985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:7" ht="15" customHeight="1">
       <c r="G23">
         <f>1/1711</f>
         <v>5.8445353594389242E-4</v>
@@ -2838,53 +3012,53 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27.6" customHeight="1">
+      <c r="A2" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="44"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="43" t="s">
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>126</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C6" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2904,18 +3078,18 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.21875" customWidth="1"/>
+    <col min="1" max="1" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="D1">
         <f>SUM(D2:D16)</f>
         <v>23631</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2930,7 +3104,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2945,7 +3119,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2960,9 +3134,9 @@
         <v>648</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2975,7 +3149,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2990,9 +3164,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3005,9 +3179,9 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3020,9 +3194,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3035,9 +3209,9 @@
         <v>450</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3050,9 +3224,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3065,9 +3239,9 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3080,9 +3254,9 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -3095,9 +3269,9 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3110,9 +3284,9 @@
         <v>357</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -3125,9 +3299,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B16">
         <v>1</v>

--- a/doc/таблица закупок.xlsx
+++ b/doc/таблица закупок.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\cansat-UKLON-M-2023-2024\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11988" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <sheet name="Лист5" sheetId="5" r:id="rId5"/>
     <sheet name="Лист6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -610,7 +605,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -966,14 +961,14 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1297,7 +1292,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1307,26 +1302,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="13.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="39.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="33.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="34.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="2"/>
+    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="34.5546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.5546875" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1361,7 +1356,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="106.5" customHeight="1">
+    <row r="2" spans="1:11" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1387,14 +1382,14 @@
       <c r="H2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="48" t="s">
         <v>168</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="60">
+    <row r="3" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1424,7 +1419,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="60">
+    <row r="4" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1458,7 +1453,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30">
+    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>61</v>
       </c>
@@ -1491,7 +1486,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30">
+    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1524,7 +1519,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="60">
+    <row r="7" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>153</v>
       </c>
@@ -1560,7 +1555,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30">
+    <row r="8" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1593,7 +1588,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="60">
+    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -1623,7 +1618,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="75">
+    <row r="10" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>35</v>
       </c>
@@ -1656,7 +1651,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30">
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>55</v>
       </c>
@@ -1685,7 +1680,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="48" customHeight="1">
+    <row r="12" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>15</v>
       </c>
@@ -1721,7 +1716,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="60">
+    <row r="13" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>69</v>
       </c>
@@ -1754,7 +1749,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="45">
+    <row r="14" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
         <v>110</v>
       </c>
@@ -1787,7 +1782,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="67.5" customHeight="1">
+    <row r="15" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>137</v>
       </c>
@@ -1820,7 +1815,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="60">
+    <row r="16" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>160</v>
       </c>
@@ -1849,7 +1844,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="33"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>67</v>
       </c>
@@ -1864,7 +1859,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18.75">
+    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B18" s="46" t="s">
         <v>136</v>
       </c>
@@ -1876,9 +1871,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1"/>
-    <hyperlink ref="G12"/>
+    <hyperlink ref="G12" display="https://ru.aliexpress.com/item/32950780030.html?src=google&amp;src=google&amp;albch=shopping&amp;acnt=494-037-6276&amp;isdl=y&amp;slnk=&amp;plac=&amp;mtctp=&amp;albbt=Google_7_shopping&amp;aff_platform=google&amp;aff_short_key=UneMJZVf&amp;&amp;albagn=888888&amp;albcp=1626924677&amp;albag=67602394011&amp;trgt=8309"/>
     <hyperlink ref="G13" r:id="rId2"/>
-    <hyperlink ref="G2"/>
+    <hyperlink ref="G2" display="https://aliexpress.ru/item/1005003722291328.html?spm=a2g2w.detail.rcmdprod.2.7bd86c26remBms&amp;mixer_rcmd_bucket_id=aerabtestalgoRecommendKazanV3_controlRu1.aerabtestalgoRecommendAbV10_controlRu2&amp;ru_algo_pv_id=c5f332-ea9d81-d8cd5f-e9b011&amp;scenario=aerSimilarI"/>
     <hyperlink ref="G9" r:id="rId3"/>
     <hyperlink ref="G10" r:id="rId4"/>
     <hyperlink ref="G14" r:id="rId5"/>
@@ -1892,9 +1887,10 @@
     <hyperlink ref="H8" r:id="rId13"/>
     <hyperlink ref="G8" r:id="rId14"/>
     <hyperlink ref="G4" r:id="rId15"/>
+    <hyperlink ref="G11" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId16"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -1906,26 +1902,26 @@
       <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.75">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:4" ht="33.6" x14ac:dyDescent="0.8">
+      <c r="A1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-    </row>
-    <row r="2" spans="1:4" ht="18.75">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
@@ -1939,7 +1935,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75">
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>46</v>
       </c>
@@ -1950,7 +1946,7 @@
         <v>349.36</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>21</v>
       </c>
@@ -1965,7 +1961,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
@@ -1980,7 +1976,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>11</v>
       </c>
@@ -1995,7 +1991,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>13</v>
       </c>
@@ -2010,7 +2006,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>23</v>
       </c>
@@ -2025,7 +2021,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>24</v>
       </c>
@@ -2040,7 +2036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>27</v>
       </c>
@@ -2055,7 +2051,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -2070,7 +2066,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="26" customFormat="1">
+    <row r="12" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>48</v>
       </c>
@@ -2085,7 +2081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>47</v>
       </c>
@@ -2100,7 +2096,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="26" customFormat="1" ht="45">
+    <row r="14" spans="1:4" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>15</v>
       </c>
@@ -2115,7 +2111,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>25</v>
       </c>
@@ -2130,7 +2126,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="26" customFormat="1">
+    <row r="16" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>35</v>
       </c>
@@ -2145,7 +2141,7 @@
         <v>15.96</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -2160,7 +2156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>115</v>
       </c>
@@ -2175,7 +2171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -2190,7 +2186,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>117</v>
       </c>
@@ -2205,13 +2201,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D21" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D22" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2230,22 +2226,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25">
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
@@ -2268,7 +2264,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>45</v>
       </c>
@@ -2285,7 +2281,7 @@
         <v>3.1846376999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27" thickBot="1">
+    <row r="3" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>36</v>
       </c>
@@ -2310,7 +2306,7 @@
         <v>0.23165999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27" thickBot="1">
+    <row r="4" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
         <v>37</v>
       </c>
@@ -2335,7 +2331,7 @@
         <v>9.8999999999999991E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27" thickBot="1">
+    <row r="5" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>38</v>
       </c>
@@ -2360,7 +2356,7 @@
         <v>6.4349999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="39.75" thickBot="1">
+    <row r="6" spans="1:7" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="s">
         <v>39</v>
       </c>
@@ -2385,7 +2381,7 @@
         <v>6.2667E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="27" thickBot="1">
+    <row r="7" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>40</v>
       </c>
@@ -2410,7 +2406,7 @@
         <v>2.673E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>41</v>
       </c>
@@ -2435,7 +2431,7 @@
         <v>1.1879999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="28" t="s">
         <v>42</v>
       </c>
@@ -2460,7 +2456,7 @@
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="39.75" thickBot="1">
+    <row r="10" spans="1:7" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>56</v>
       </c>
@@ -2485,7 +2481,7 @@
         <v>0.29699999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -2510,7 +2506,7 @@
         <v>7.4249999999999993E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>57</v>
       </c>
@@ -2535,7 +2531,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
         <v>43</v>
       </c>
@@ -2560,7 +2556,7 @@
         <v>0.14849999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
@@ -2585,7 +2581,7 @@
         <v>5.9399999999999991E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>44</v>
       </c>
@@ -2610,7 +2606,7 @@
         <v>0.12869999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -2635,7 +2631,7 @@
         <v>6.1380000000000002E-3</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>49</v>
       </c>
@@ -2643,7 +2639,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>50</v>
       </c>
@@ -2652,7 +2648,7 @@
         <v>3.4996018681318675</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>51</v>
       </c>
@@ -2660,7 +2656,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>52</v>
       </c>
@@ -2669,15 +2665,15 @@
         <v>0.94583834273834255</v>
       </c>
     </row>
-    <row r="21" spans="4:5">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>54</v>
       </c>
       <c r="E21">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>30</v>
       </c>
@@ -2686,12 +2682,12 @@
         <v>0.41755524999999999</v>
       </c>
     </row>
-    <row r="23" spans="4:5">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>53</v>
       </c>
       <c r="E23">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -2707,16 +2703,16 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -2739,8 +2735,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="50" t="s">
         <v>62</v>
       </c>
       <c r="B2" t="s">
@@ -2762,8 +2758,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="49"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="50"/>
       <c r="B3" t="s">
         <v>79</v>
       </c>
@@ -2783,8 +2779,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="49"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="50"/>
       <c r="B4" t="s">
         <v>80</v>
       </c>
@@ -2804,8 +2800,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="49" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="50" t="s">
         <v>63</v>
       </c>
       <c r="B5" t="s">
@@ -2827,8 +2823,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="49"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="50"/>
       <c r="B6" t="s">
         <v>79</v>
       </c>
@@ -2848,7 +2844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -2871,8 +2867,8 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="49" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="50" t="s">
         <v>93</v>
       </c>
       <c r="B8" t="s">
@@ -2894,8 +2890,8 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="49"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="50"/>
       <c r="B9" t="s">
         <v>102</v>
       </c>
@@ -2915,7 +2911,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>98</v>
       </c>
@@ -2938,8 +2934,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="49" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="50" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
@@ -2949,8 +2945,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="49"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="50"/>
       <c r="B12" t="s">
         <v>105</v>
       </c>
@@ -2958,8 +2954,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="49"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="50"/>
       <c r="B13" t="s">
         <v>106</v>
       </c>
@@ -2967,8 +2963,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="49"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="50"/>
       <c r="B14" t="s">
         <v>107</v>
       </c>
@@ -2985,7 +2981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="7:7" ht="15" customHeight="1">
+    <row r="23" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G23">
         <f>1/1711</f>
         <v>5.8445353594389242E-4</v>
@@ -3012,18 +3008,18 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27.6" customHeight="1">
+    <row r="2" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>119</v>
       </c>
@@ -3034,10 +3030,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>122</v>
       </c>
@@ -3048,12 +3044,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>126</v>
       </c>
@@ -3078,18 +3074,18 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.28515625" customWidth="1"/>
+    <col min="1" max="1" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D1">
         <f>SUM(D2:D16)</f>
         <v>23631</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3104,7 +3100,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3119,7 +3115,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3134,7 +3130,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -3149,7 +3145,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3164,7 +3160,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>129</v>
       </c>
@@ -3179,7 +3175,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -3194,7 +3190,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -3209,7 +3205,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -3224,7 +3220,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>131</v>
       </c>
@@ -3239,7 +3235,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>132</v>
       </c>
@@ -3254,7 +3250,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -3269,7 +3265,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>133</v>
       </c>
@@ -3284,7 +3280,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>134</v>
       </c>
@@ -3299,7 +3295,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>135</v>
       </c>

--- a/doc/таблица закупок.xlsx
+++ b/doc/таблица закупок.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11988" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Лист5" sheetId="5" r:id="rId5"/>
     <sheet name="Лист6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -605,7 +605,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1302,26 +1302,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="2"/>
-    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="39.5546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="33.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="34.5546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.5546875" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.08984375" style="2"/>
+    <col min="5" max="5" width="13.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.54296875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33.08984375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="34.54296875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.54296875" customWidth="1"/>
+    <col min="11" max="11" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="27" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="106.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="58">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="58">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="58">
       <c r="A5" s="29" t="s">
         <v>61</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="43.5">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="58">
       <c r="A7" s="2" t="s">
         <v>153</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="58">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="58">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="72.5">
       <c r="A10" s="10" t="s">
         <v>35</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="29">
       <c r="A11" s="2" t="s">
         <v>55</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="48" customHeight="1">
       <c r="A12" s="31" t="s">
         <v>15</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="58">
       <c r="A13" s="32" t="s">
         <v>69</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="43.5">
       <c r="A14" s="41" t="s">
         <v>110</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="67.5" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>137</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="43.5">
       <c r="A16" s="2" t="s">
         <v>160</v>
       </c>
@@ -1844,7 +1844,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="33"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>67</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="18.5">
       <c r="B18" s="46" t="s">
         <v>136</v>
       </c>
@@ -1902,18 +1902,18 @@
       <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="28.90625" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+    <col min="3" max="3" width="20.90625" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" customWidth="1"/>
+    <col min="13" max="13" width="13.54296875" customWidth="1"/>
+    <col min="14" max="14" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.6" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:4" ht="29.5">
       <c r="A1" s="49" t="s">
         <v>16</v>
       </c>
@@ -1921,7 +1921,7 @@
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.5">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="18.5">
       <c r="A3" s="8" t="s">
         <v>46</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>349.36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="20" t="s">
         <v>21</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="20" t="s">
         <v>11</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="20" t="s">
         <v>13</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="20" t="s">
         <v>23</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="20" t="s">
         <v>24</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="21" t="s">
         <v>27</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="26" customFormat="1">
       <c r="A12" s="23" t="s">
         <v>48</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
         <v>47</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="26" customFormat="1" ht="43.5">
       <c r="A14" s="27" t="s">
         <v>15</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
         <v>25</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" s="26" customFormat="1">
       <c r="A16" s="23" t="s">
         <v>35</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>15.96</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>115</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>117</v>
       </c>
@@ -2201,13 +2201,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="D21" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="D22" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2226,22 +2226,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" customWidth="1"/>
+    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="33.36328125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="16.08984375" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" thickBot="1">
       <c r="A2" s="15" t="s">
         <v>45</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>3.1846376999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="26.5" thickBot="1">
       <c r="A3" s="11" t="s">
         <v>36</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>0.23165999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="26.5" thickBot="1">
       <c r="A4" s="28" t="s">
         <v>37</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>9.8999999999999991E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="26.5" thickBot="1">
       <c r="A5" s="11" t="s">
         <v>38</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>6.4349999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="39" thickBot="1">
       <c r="A6" s="28" t="s">
         <v>39</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>6.2667E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="26.5" thickBot="1">
       <c r="A7" s="11" t="s">
         <v>40</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>2.673E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15" thickBot="1">
       <c r="A8" s="11" t="s">
         <v>41</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>1.1879999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15" thickBot="1">
       <c r="A9" s="28" t="s">
         <v>42</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="39" thickBot="1">
       <c r="A10" s="11" t="s">
         <v>56</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>0.29699999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15" thickBot="1">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>7.4249999999999993E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15" thickBot="1">
       <c r="A12" s="11" t="s">
         <v>57</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15" thickBot="1">
       <c r="A13" s="28" t="s">
         <v>43</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>0.14849999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15" thickBot="1">
       <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>5.9399999999999991E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15" thickBot="1">
       <c r="A15" s="15" t="s">
         <v>44</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>0.12869999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" thickBot="1">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>6.1380000000000002E-3</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:5">
       <c r="D17" t="s">
         <v>49</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:5">
       <c r="D18" t="s">
         <v>50</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>3.4996018681318675</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:5">
       <c r="D19" t="s">
         <v>51</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:5">
       <c r="D20" t="s">
         <v>52</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>0.94583834273834255</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:5">
       <c r="D21" t="s">
         <v>54</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:5">
       <c r="D22" t="s">
         <v>30</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>0.41755524999999999</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:5">
       <c r="D23" t="s">
         <v>53</v>
       </c>
@@ -2703,16 +2703,16 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.6328125" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="50" t="s">
         <v>62</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="50"/>
       <c r="B3" t="s">
         <v>79</v>
@@ -2779,7 +2779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="50"/>
       <c r="B4" t="s">
         <v>80</v>
@@ -2800,7 +2800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="50" t="s">
         <v>63</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="50"/>
       <c r="B6" t="s">
         <v>79</v>
@@ -2844,7 +2844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="50" t="s">
         <v>93</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="50"/>
       <c r="B9" t="s">
         <v>102</v>
@@ -2911,7 +2911,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>98</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="50" t="s">
         <v>12</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="50"/>
       <c r="B12" t="s">
         <v>105</v>
@@ -2954,7 +2954,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="50"/>
       <c r="B13" t="s">
         <v>106</v>
@@ -2963,7 +2963,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="50"/>
       <c r="B14" t="s">
         <v>107</v>
@@ -2981,7 +2981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:7" ht="15" customHeight="1">
       <c r="G23">
         <f>1/1711</f>
         <v>5.8445353594389242E-4</v>
@@ -3008,18 +3008,18 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+    <col min="2" max="2" width="25.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="27.65" customHeight="1">
       <c r="A2" s="42" t="s">
         <v>119</v>
       </c>
@@ -3030,10 +3030,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="44"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>122</v>
       </c>
@@ -3044,12 +3044,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="45" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>126</v>
       </c>
@@ -3074,18 +3074,18 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="45.33203125" customWidth="1"/>
+    <col min="1" max="1" width="45.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="D1">
         <f>SUM(D2:D16)</f>
         <v>23631</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>129</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>131</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>132</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>133</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>134</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>135</v>
       </c>

--- a/doc/таблица закупок.xlsx
+++ b/doc/таблица закупок.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="185">
   <si>
     <t>Наименование</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t xml:space="preserve">Стандартный конструктор </t>
-  </si>
-  <si>
-    <t>AD5593</t>
   </si>
   <si>
     <t>GPS-антенна МА бол. Беж.</t>
@@ -597,15 +594,23 @@
   <si>
     <t>https://batterymag.ru/akkumulyator-li-po-robiton-443442-600-mach</t>
   </si>
+  <si>
+    <t>ADs1115</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Модуль датчика положения в пространстве GY-25
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -770,6 +775,20 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -809,7 +828,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -843,12 +862,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -969,6 +1003,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1292,7 +1338,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1302,7 +1348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -1335,7 +1381,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>4</v>
@@ -1344,16 +1390,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="106.5" customHeight="1">
@@ -1377,16 +1423,16 @@
         <v>2534.9299999999998</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I2" s="48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="58">
@@ -1410,13 +1456,13 @@
         <v>892</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="58">
@@ -1440,25 +1486,25 @@
         <v>1554.53</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J4" s="47"/>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="58">
       <c r="A5" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -1474,16 +1520,16 @@
         <v>1108</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J5" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="43.5">
@@ -1507,24 +1553,24 @@
         <v>455</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="I6" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="58">
       <c r="A7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -1540,27 +1586,27 @@
         <v>407.5</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="58">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -1576,21 +1622,21 @@
         <v>710</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J8" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="58">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
@@ -1606,24 +1652,24 @@
         <v>1500</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="72.5">
       <c r="A10" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -1639,24 +1685,24 @@
         <v>958</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="29">
       <c r="A11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C11" s="2">
         <v>4</v>
@@ -1672,12 +1718,12 @@
         <v>1572</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="48" customHeight="1">
@@ -1685,7 +1731,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -1701,27 +1747,27 @@
         <v>3984</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" t="s">
         <v>65</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="K12" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="58">
       <c r="A13" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -1737,24 +1783,24 @@
         <v>2550</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="43.5">
       <c r="A14" s="41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>
@@ -1770,24 +1816,24 @@
         <v>1500</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="67.5" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="2">
         <v>4</v>
@@ -1803,24 +1849,24 @@
         <v>722</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="43.5">
       <c r="A16" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -1836,17 +1882,17 @@
         <v>659</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
@@ -1861,7 +1907,7 @@
     </row>
     <row r="18" spans="1:6" ht="18.5">
       <c r="B18" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F18" s="46">
         <f>SUM(F2:F17)</f>
@@ -1937,7 +1983,7 @@
     </row>
     <row r="3" spans="1:4" ht="18.5">
       <c r="A3" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -2008,7 +2054,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="7">
         <v>11.8</v>
@@ -2023,7 +2069,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
@@ -2038,7 +2084,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="7">
         <v>3.2</v>
@@ -2053,7 +2099,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="7">
         <v>0.1</v>
@@ -2068,7 +2114,7 @@
     </row>
     <row r="12" spans="1:4" s="26" customFormat="1">
       <c r="A12" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="24">
         <v>15</v>
@@ -2083,7 +2129,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="7">
         <v>13.4</v>
@@ -2113,7 +2159,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="7">
         <v>1.5</v>
@@ -2128,7 +2174,7 @@
     </row>
     <row r="16" spans="1:4" s="26" customFormat="1">
       <c r="A16" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="24">
         <v>3.99</v>
@@ -2143,7 +2189,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="7">
         <v>2</v>
@@ -2158,7 +2204,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -2173,7 +2219,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19">
         <v>165</v>
@@ -2188,7 +2234,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20">
         <v>50</v>
@@ -2224,10 +2270,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2239,51 +2285,52 @@
     <col min="5" max="5" width="16.36328125" customWidth="1"/>
     <col min="6" max="6" width="16.08984375" customWidth="1"/>
     <col min="7" max="7" width="14.6328125" customWidth="1"/>
+    <col min="11" max="11" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="A1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1">
+    </row>
+    <row r="2" spans="1:14" ht="15" thickBot="1">
       <c r="A2" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="40">
-        <f>SUM(C3:C16)</f>
-        <v>0.41755524999999999</v>
+        <f>SUM(C3:C17)</f>
+        <v>0.43165524999999999</v>
       </c>
       <c r="E2" s="40">
-        <f>SUM(E3:E16)</f>
-        <v>1.0615459</v>
+        <f>SUM(E3:E17)</f>
+        <v>1.1092309</v>
       </c>
       <c r="G2" s="38">
-        <f>SUM(G3:G16)</f>
-        <v>3.1846376999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="26.5" thickBot="1">
+        <f>SUM(G3:G17)</f>
+        <v>3.3276926999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="26.5" thickBot="1">
       <c r="A3" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="35">
         <v>2.3400000000000001E-2</v>
@@ -2302,13 +2349,13 @@
         <v>3</v>
       </c>
       <c r="G3" s="35">
-        <f t="shared" ref="G3:G9" si="0">E3*F3</f>
+        <f t="shared" ref="G3:G10" si="0">E3*F3</f>
         <v>0.23165999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="26.5" thickBot="1">
+    <row r="4" spans="1:14" ht="26.5" thickBot="1">
       <c r="A4" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="35">
         <v>1E-3</v>
@@ -2320,7 +2367,7 @@
         <v>3.3</v>
       </c>
       <c r="E4" s="35">
-        <f t="shared" ref="E4:E15" si="1">B4*D4</f>
+        <f t="shared" ref="E4:E16" si="1">B4*D4</f>
         <v>3.3E-3</v>
       </c>
       <c r="F4" s="12">
@@ -2331,9 +2378,9 @@
         <v>9.8999999999999991E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="26.5" thickBot="1">
+    <row r="5" spans="1:14" ht="26.5" thickBot="1">
       <c r="A5" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="35">
         <v>6.4999999999999997E-4</v>
@@ -2356,9 +2403,9 @@
         <v>6.4349999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="39" thickBot="1">
+    <row r="6" spans="1:14" ht="39" thickBot="1">
       <c r="A6" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="35">
         <v>6.3299999999999999E-4</v>
@@ -2381,9 +2428,9 @@
         <v>6.2667E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="26.5" thickBot="1">
+    <row r="7" spans="1:14" ht="26.5" thickBot="1">
       <c r="A7" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="35">
         <v>2.7E-4</v>
@@ -2406,9 +2453,9 @@
         <v>2.673E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1">
+    <row r="8" spans="1:14" ht="15" thickBot="1">
       <c r="A8" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="35">
         <v>0.12</v>
@@ -2431,9 +2478,9 @@
         <v>1.1879999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1">
+    <row r="9" spans="1:14" ht="15" thickBot="1">
       <c r="A9" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="35">
         <v>0.04</v>
@@ -2445,7 +2492,7 @@
         <v>3.3</v>
       </c>
       <c r="E9" s="35">
-        <f t="shared" si="1"/>
+        <f>B9*D9</f>
         <v>0.13200000000000001</v>
       </c>
       <c r="F9" s="12">
@@ -2455,243 +2502,298 @@
         <f t="shared" si="0"/>
         <v>0.39600000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="39" thickBot="1">
-      <c r="A10" s="11" t="s">
-        <v>56</v>
+      <c r="K9">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>0.14849999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="48.5" customHeight="1" thickBot="1">
+      <c r="A10" s="28" t="s">
+        <v>184</v>
       </c>
       <c r="B10" s="35">
+        <f>0.015</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C10" s="35">
+        <f>0.015</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D10" s="51">
+        <v>3.3</v>
+      </c>
+      <c r="E10" s="35">
+        <f>B10*D10</f>
+        <v>4.9499999999999995E-2</v>
+      </c>
+      <c r="F10" s="12">
+        <v>3</v>
+      </c>
+      <c r="G10" s="35">
+        <f t="shared" si="0"/>
+        <v>0.14849999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="39" thickBot="1">
+      <c r="A11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="35">
         <v>0.03</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C11" s="36">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D11" s="12">
         <v>3.3</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E11" s="35">
         <f t="shared" si="1"/>
         <v>9.8999999999999991E-2</v>
       </c>
-      <c r="F10" s="12">
-        <v>3</v>
-      </c>
-      <c r="G10" s="35">
-        <f t="shared" ref="G10:G16" si="2">E10*F10</f>
-        <v>0.29699999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="35">
-        <v>7.5000000000000002E-4</v>
-      </c>
-      <c r="C11" s="35">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="D11" s="12">
-        <v>3.3</v>
-      </c>
-      <c r="E11" s="35">
-        <f>B11*D11</f>
-        <v>2.4749999999999998E-3</v>
-      </c>
       <c r="F11" s="12">
         <v>3</v>
       </c>
       <c r="G11" s="35">
-        <f t="shared" si="2"/>
-        <v>7.4249999999999993E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1">
-      <c r="A12" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="35">
-        <v>0.05</v>
-      </c>
-      <c r="C12" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="D12" s="12">
-        <v>5</v>
-      </c>
-      <c r="E12" s="35">
+        <f t="shared" ref="G11:G17" si="2">E11*F11</f>
+        <v>0.29699999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="52">
+        <f>0.0002</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C12" s="53">
+        <f>0.0002</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D12" s="52">
+        <f>3.3</f>
+        <v>3.3</v>
+      </c>
+      <c r="E12" s="54">
         <f>B12*D12</f>
-        <v>0.25</v>
-      </c>
-      <c r="F12" s="12">
+        <v>6.6E-4</v>
+      </c>
+      <c r="F12" s="52">
         <v>3</v>
       </c>
       <c r="G12" s="35">
         <f t="shared" si="2"/>
+        <v>1.98E-3</v>
+      </c>
+      <c r="K12" s="40">
+        <v>6.6E-4</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12" s="40">
+        <v>1.98E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" thickBot="1">
+      <c r="A13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="C13" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="12">
+        <v>5</v>
+      </c>
+      <c r="E13" s="35">
+        <f>B13*D13</f>
+        <v>0.25</v>
+      </c>
+      <c r="F13" s="12">
+        <v>3</v>
+      </c>
+      <c r="G13" s="35">
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1">
-      <c r="A13" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="35">
+    <row r="14" spans="1:14" ht="15" thickBot="1">
+      <c r="A14" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="35">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C14" s="36">
         <v>0.02</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D14" s="12">
         <v>3.3</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E14" s="35">
         <f t="shared" si="1"/>
         <v>4.9499999999999995E-2</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F14" s="12">
         <v>3</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G14" s="35">
         <f t="shared" si="2"/>
         <v>0.14849999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1">
-      <c r="A14" s="13" t="s">
+    <row r="15" spans="1:14" ht="15" thickBot="1">
+      <c r="A15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B15" s="37">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C15" s="36">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D15" s="14">
         <v>3.3</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E15" s="35">
         <f t="shared" si="1"/>
         <v>1.9799999999999996E-3</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F15" s="14">
         <v>3</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G15" s="35">
         <f t="shared" si="2"/>
         <v>5.9399999999999991E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1">
-      <c r="A15" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="38">
+    <row r="16" spans="1:14" ht="15" thickBot="1">
+      <c r="A16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="38">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C16" s="39">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D16" s="18">
         <v>3.3</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E16" s="38">
         <f t="shared" si="1"/>
         <v>4.2899999999999994E-2</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F16" s="18">
         <v>3</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G16" s="35">
         <f t="shared" si="2"/>
         <v>0.12869999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1">
-      <c r="A16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="35">
+    <row r="17" spans="1:11" ht="15" thickBot="1">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="35">
         <v>6.2E-4</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C17" s="36">
         <v>9.2124999999999998E-4</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D17" s="14">
         <v>3.3</v>
       </c>
-      <c r="E16" s="35">
-        <f>B16*D16</f>
+      <c r="E17" s="35">
+        <f>B17*D17</f>
         <v>2.0460000000000001E-3</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F17" s="30">
         <v>3</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G17" s="35">
         <f t="shared" si="2"/>
         <v>6.1380000000000002E-3</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
-      <c r="D17" t="s">
+    <row r="18" spans="1:11">
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="22">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="D19" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="22">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="D18" t="s">
+      <c r="E19">
+        <f>G2/E18</f>
+        <v>3.6568051648351645</v>
+      </c>
+      <c r="J19">
+        <v>3.65680516483516</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="D20" t="s">
         <v>50</v>
       </c>
-      <c r="E18">
-        <f>G2/E17</f>
-        <v>3.4996018681318675</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5">
-      <c r="D19" t="s">
+      <c r="E20">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="D21" t="s">
         <v>51</v>
       </c>
-      <c r="E19">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5">
-      <c r="D20" t="s">
+      <c r="E21">
+        <f>E19/E20</f>
+        <v>0.98832572022572007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22">
+        <v>1.2</v>
+      </c>
+      <c r="K22">
+        <v>0.98832572022571996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="40">
+        <f>C2</f>
+        <v>0.43165524999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="D24" t="s">
         <v>52</v>
       </c>
-      <c r="E20">
-        <f>E18/E19</f>
-        <v>0.94583834273834255</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5">
-      <c r="D21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5">
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22">
-        <f>C2</f>
-        <v>0.41755524999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5">
-      <c r="D23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23">
+      <c r="E24">
         <v>1.2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2714,39 +2816,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
         <v>71</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>74</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>75</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>76</v>
-      </c>
-      <c r="G1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2">
         <v>0.5</v>
@@ -2761,13 +2863,13 @@
     <row r="3" spans="1:7">
       <c r="A3" s="50"/>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3">
         <v>0.12</v>
@@ -2782,16 +2884,16 @@
     <row r="4" spans="1:7">
       <c r="A4" s="50"/>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -2802,16 +2904,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5">
         <v>0.5</v>
@@ -2826,13 +2928,13 @@
     <row r="6" spans="1:7">
       <c r="A6" s="50"/>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6">
         <v>0.12</v>
@@ -2846,16 +2948,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
         <v>91</v>
-      </c>
-      <c r="B7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" t="s">
-        <v>92</v>
       </c>
       <c r="E7">
         <v>0.5</v>
@@ -2869,16 +2971,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
         <v>93</v>
-      </c>
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" t="s">
-        <v>94</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -2893,13 +2995,13 @@
     <row r="9" spans="1:7">
       <c r="A9" s="50"/>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" t="s">
         <v>96</v>
-      </c>
-      <c r="D9" t="s">
-        <v>97</v>
       </c>
       <c r="E9">
         <v>0.04</v>
@@ -2913,16 +3015,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" t="s">
         <v>98</v>
       </c>
-      <c r="B10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" t="s">
-        <v>99</v>
-      </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10">
         <v>4.0000000000000001E-3</v>
@@ -2939,37 +3041,37 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="50"/>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="50"/>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="50"/>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E14">
         <v>2.5</v>
@@ -3016,18 +3118,18 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="27.65" customHeight="1">
       <c r="A2" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="F2" t="s">
         <v>120</v>
-      </c>
-      <c r="F2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3035,26 +3137,26 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="G4" t="s">
         <v>123</v>
-      </c>
-      <c r="G4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" t="s">
         <v>126</v>
-      </c>
-      <c r="C6" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3132,7 +3234,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3162,7 +3264,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3177,7 +3279,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3192,7 +3294,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3207,7 +3309,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3222,7 +3324,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3237,7 +3339,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3252,7 +3354,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -3267,7 +3369,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3282,7 +3384,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -3297,7 +3399,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16">
         <v>1</v>

--- a/doc/таблица закупок.xlsx
+++ b/doc/таблица закупок.xlsx
@@ -608,7 +608,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -998,23 +998,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1338,7 +1338,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1960,12 +1960,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="29.5">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" ht="18.5">
       <c r="A2" s="8" t="s">
@@ -2272,8 +2272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2321,11 +2321,11 @@
       </c>
       <c r="E2" s="40">
         <f>SUM(E3:E17)</f>
-        <v>1.1092309</v>
+        <v>1.1605709000000002</v>
       </c>
       <c r="G2" s="38">
         <f>SUM(G3:G17)</f>
-        <v>3.3276926999999996</v>
+        <v>3.4817126999999997</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="26.5" thickBot="1">
@@ -2524,7 +2524,7 @@
         <f>0.015</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="49">
         <v>3.3</v>
       </c>
       <c r="E10" s="35">
@@ -2550,46 +2550,46 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="D11" s="12">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="E11" s="35">
         <f t="shared" si="1"/>
-        <v>9.8999999999999991E-2</v>
+        <v>0.15</v>
       </c>
       <c r="F11" s="12">
         <v>3</v>
       </c>
       <c r="G11" s="35">
         <f t="shared" ref="G11:G17" si="2">E11*F11</f>
-        <v>0.29699999999999999</v>
+        <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1">
       <c r="A12" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B12" s="52">
+      <c r="B12" s="50">
         <f>0.0002</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="51">
         <f>0.0002</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D12" s="52">
-        <f>3.3</f>
-        <v>3.3</v>
-      </c>
-      <c r="E12" s="54">
+      <c r="D12" s="50">
+        <f>5</f>
+        <v>5</v>
+      </c>
+      <c r="E12" s="52">
         <f>B12*D12</f>
-        <v>6.6E-4</v>
-      </c>
-      <c r="F12" s="52">
+        <v>1E-3</v>
+      </c>
+      <c r="F12" s="50">
         <v>3</v>
       </c>
       <c r="G12" s="35">
         <f t="shared" si="2"/>
-        <v>1.98E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="K12" s="40">
         <v>6.6E-4</v>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="E19">
         <f>G2/E18</f>
-        <v>3.6568051648351645</v>
+        <v>3.8260579120879115</v>
       </c>
       <c r="J19">
         <v>3.65680516483516</v>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="E21">
         <f>E19/E20</f>
-        <v>0.98832572022572007</v>
+        <v>1.0340697059697057</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2838,7 +2838,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>61</v>
       </c>
       <c r="B2" t="s">
@@ -2861,7 +2861,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="50"/>
+      <c r="A3" s="54"/>
       <c r="B3" t="s">
         <v>78</v>
       </c>
@@ -2882,7 +2882,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="50"/>
+      <c r="A4" s="54"/>
       <c r="B4" t="s">
         <v>79</v>
       </c>
@@ -2903,7 +2903,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="54" t="s">
         <v>62</v>
       </c>
       <c r="B5" t="s">
@@ -2926,7 +2926,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="50"/>
+      <c r="A6" s="54"/>
       <c r="B6" t="s">
         <v>78</v>
       </c>
@@ -2970,7 +2970,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="54" t="s">
         <v>92</v>
       </c>
       <c r="B8" t="s">
@@ -2993,7 +2993,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="50"/>
+      <c r="A9" s="54"/>
       <c r="B9" t="s">
         <v>101</v>
       </c>
@@ -3037,7 +3037,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="54" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
@@ -3048,7 +3048,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="50"/>
+      <c r="A12" s="54"/>
       <c r="B12" t="s">
         <v>104</v>
       </c>
@@ -3057,7 +3057,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="50"/>
+      <c r="A13" s="54"/>
       <c r="B13" t="s">
         <v>105</v>
       </c>
@@ -3066,7 +3066,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="50"/>
+      <c r="A14" s="54"/>
       <c r="B14" t="s">
         <v>106</v>
       </c>
